--- a/data/trans_bre/P27F_6_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P27F_6_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -542,14 +551,12 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>8,27</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+      <c r="C4" s="5" t="n">
+        <v>7.709706904626505</v>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -557,104 +564,72 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>2,4; 18,34</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>2.253881959007979</v>
+      </c>
+      <c r="D5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>17.43581762743731</v>
+      </c>
+      <c r="D6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-4,47</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-76,9%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-14,11; 1,41</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-4.42507091850665</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.7644056022790199</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,45</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-14.04259799260079</v>
+      </c>
+      <c r="D8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 10,01</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1.480768859287972</v>
+      </c>
+      <c r="D9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -662,14 +637,12 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>5,1</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>206,62%</t>
+      <c r="C10" s="5" t="n">
+        <v>2.645132182918268</v>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -677,104 +650,74 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,45; 12,82</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-64,87; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>11.44207401879937</v>
+      </c>
+      <c r="D12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2,74</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>201,65%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,86; 12,16</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>4.935495926966388</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>2.212220855237745</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>4,72</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.278579400063697</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.6526629942381076</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 15,75</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>12.49603936105477</v>
+      </c>
+      <c r="D15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -782,37 +725,129 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>2,72</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>139,22%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>2.355383822255277</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>1.844757585700532</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-0,12; 5,73</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-11,04; 688,08</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-2.27176565870964</v>
+      </c>
+      <c r="D17" s="6" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>10.10036097406059</v>
+      </c>
+      <c r="D18" s="6" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>3.943096085255839</v>
+      </c>
+      <c r="D19" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>12.93564505828828</v>
+      </c>
+      <c r="D21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>2.480297467222253</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>1.318634082269659</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-0.2243811679482947</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>-0.1279648733631504</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>5.189006056667376</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>6.69282913190388</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -820,14 +855,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
